--- a/문서/99단API명세서 (2).xlsx
+++ b/문서/99단API명세서 (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="8040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
   <si>
     <t>{"id":1,
 "title":"긴급 휴강 안내",
 "content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
 "created_date":"NOW"
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}
-</t>
   </si>
   <si>
     <t>게시판  답글 조회</t>
@@ -203,30 +195,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 글 삭제</t>
-    </r>
-  </si>
-  <si>
     <t>입력하신 검색어의 
 글을 찾지 못하였습니다.</t>
   </si>
   <si>
     <t>유저별로 장바구니에 담은 
 목록을 보여주는 기능</t>
-  </si>
-  <si>
-    <t>PUT /subject/update/{id}</t>
   </si>
   <si>
     <t>DELETE /cart/delete/{id}</t>
@@ -286,9 +260,6 @@
   </si>
   <si>
     <t>공지사항 글등록</t>
-  </si>
-  <si>
-    <t>GET/board</t>
   </si>
   <si>
     <t>GET/commnet</t>
@@ -421,9 +392,6 @@
     <t>강의 기능</t>
   </si>
   <si>
-    <t>게시판 기능</t>
-  </si>
-  <si>
     <t>사용자 기능</t>
   </si>
   <si>
@@ -436,9 +404,6 @@
     <t>강의내용 삭제</t>
   </si>
   <si>
-    <t>게시판 조회</t>
-  </si>
-  <si>
     <t>공지사항 조회</t>
   </si>
   <si>
@@ -455,9 +420,6 @@
   </si>
   <si>
     <t>공지사항 검색</t>
-  </si>
-  <si>
-    <t>게시판 등록</t>
   </si>
   <si>
     <t>기능설명</t>
@@ -671,9 +633,6 @@
     <t>DELETE /image/delete/{id}</t>
   </si>
   <si>
-    <t>게시판 전체 조회</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 [
 {
@@ -710,6 +669,180 @@
   </si>
   <si>
     <t>장바구니</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>공지사항에 글을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정하는 기능</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /subject/update/{id}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /notice/update/{id}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>공지사항이 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 되었습니다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"title":"1종 자동.1종 수동 면허",
+"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+"price":10000,
+"instructor_name":"panda",
+"subject_type":[
+  {
+   "subject_id":1,
+   " type_id":...
+       [
+       {"name":"승용차" 등등....
+       }
+       ],
+ "image_id":1
+   {
+   "image_url" : "image_url"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       수정이 완료되었습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.02은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&amp;A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>게시판 기능</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A게시판 전체 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A게시판 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A게시판 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Q&amp;A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 글 삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A게시판 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/board/search</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시판 검색이 되었습니다 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -783,57 +916,93 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,7 +1189,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1029,7 +1198,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1364,10 +1533,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,725 +1554,797 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="186.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="234.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D34" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="186.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="234.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2" t="s">
+      <c r="F34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="272.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="8:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="H34" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" ht="133.35" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
